--- a/data/output/FV2310_FV2304/PRICAT/27003.xlsx
+++ b/data/output/FV2310_FV2304/PRICAT/27003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="217">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="217">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -801,6 +801,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U105" totalsRowShown="0">
+  <autoFilter ref="A1:U105"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,7 +1120,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5590,5 +5623,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/PRICAT/27003.xlsx
+++ b/data/output/FV2310_FV2304/PRICAT/27003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="318">
   <si>
     <t>#</t>
   </si>
@@ -3991,44 +3991,42 @@
       <c r="V57" s="11"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="K58" s="2"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="V58" s="5"/>
+      <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4052,9 +4050,7 @@
         <v>164</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>29</v>
       </c>
@@ -4098,9 +4094,7 @@
         <v>174</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>29</v>
       </c>
@@ -4148,9 +4142,7 @@
         <v>163</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>29</v>
       </c>
@@ -4175,48 +4167,46 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4244,9 +4234,7 @@
         <v>163</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>30</v>
       </c>
@@ -4298,9 +4286,7 @@
         <v>175</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>30</v>
       </c>
@@ -4354,9 +4340,7 @@
         <v>175</v>
       </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>30</v>
       </c>
@@ -4410,9 +4394,7 @@
         <v>175</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>30</v>
       </c>
@@ -4466,9 +4448,7 @@
         <v>175</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>30</v>
       </c>
@@ -4522,9 +4502,7 @@
         <v>175</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>30</v>
       </c>
@@ -4551,46 +4529,44 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="L69" s="4"/>
+      <c r="M69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="V69" s="5" t="s">
+      <c r="V69" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4616,9 +4592,7 @@
         <v>164</v>
       </c>
       <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="5" t="s">
         <v>31</v>
       </c>
@@ -4666,9 +4640,7 @@
         <v>163</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>31</v>
       </c>
@@ -4722,9 +4694,7 @@
         <v>163</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>31</v>
       </c>
@@ -4778,9 +4748,7 @@
         <v>163</v>
       </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>31</v>
       </c>
@@ -4807,46 +4775,44 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="L74" s="4"/>
+      <c r="M74" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="V74" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4872,9 +4838,7 @@
         <v>164</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>32</v>
       </c>
@@ -4918,9 +4882,7 @@
         <v>108</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>32</v>
       </c>
@@ -4943,44 +4905,42 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M77" s="5" t="s">
+      <c r="K77" s="2"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V77" s="5"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5004,9 +4964,7 @@
         <v>164</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>33</v>
       </c>
@@ -5054,9 +5012,7 @@
       <c r="K79" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L79" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>33</v>
       </c>
@@ -5110,9 +5066,7 @@
       <c r="K80" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="L80" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>33</v>
       </c>
@@ -5166,9 +5120,7 @@
         <v>163</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>33</v>
       </c>
@@ -5195,46 +5147,44 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="V82" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5260,9 +5210,7 @@
         <v>164</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5310,9 +5258,7 @@
         <v>163</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>34</v>
       </c>
@@ -5366,9 +5312,7 @@
       <c r="K85" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>34</v>
       </c>
@@ -5395,46 +5339,44 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="V86" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5460,9 +5402,7 @@
         <v>164</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>35</v>
       </c>
@@ -5508,9 +5448,7 @@
         <v>183</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>35</v>
       </c>
@@ -5535,44 +5473,42 @@
       <c r="V88" s="5"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M89" s="5" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N89" s="5" t="s">
+      <c r="N89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V89" s="5"/>
+      <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -5596,9 +5532,7 @@
         <v>164</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>33</v>
       </c>
@@ -5646,9 +5580,7 @@
       <c r="K91" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>33</v>
       </c>
@@ -5702,9 +5634,7 @@
       <c r="K92" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="L92" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>33</v>
       </c>
@@ -5758,9 +5688,7 @@
         <v>163</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>33</v>
       </c>
@@ -5787,44 +5715,42 @@
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M94" s="5" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -5848,9 +5774,7 @@
         <v>164</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>34</v>
       </c>
@@ -5898,9 +5822,7 @@
         <v>163</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>34</v>
       </c>
@@ -5954,9 +5876,7 @@
       <c r="K97" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>34</v>
       </c>
@@ -5983,50 +5903,48 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K98" s="5" t="s">
+      <c r="K98" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L98" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O98" s="5" t="s">
+      <c r="O98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V98" s="5" t="s">
+      <c r="V98" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6054,9 +5972,7 @@
         <v>187</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>36</v>
       </c>
@@ -6106,9 +6022,7 @@
         <v>163</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>36</v>
       </c>
@@ -6162,9 +6076,7 @@
       <c r="K101" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L101" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>36</v>
       </c>
@@ -6218,9 +6130,7 @@
       <c r="K102" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>36</v>
       </c>
@@ -6247,44 +6157,42 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5" t="s">
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6310,9 +6218,7 @@
         <v>163</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>37</v>
       </c>
@@ -6358,9 +6264,7 @@
         <v>163</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>37</v>
       </c>

--- a/data/output/FV2310_FV2304/PRICAT/27003.xlsx
+++ b/data/output/FV2310_FV2304/PRICAT/27003.xlsx
@@ -1088,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1111,6 +1111,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1119,6 +1122,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1561,7 +1567,7 @@
         <v>190</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1899,7 +1905,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2237,7 +2243,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2425,7 +2431,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -2611,7 +2617,7 @@
         <v>193</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2801,7 +2807,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2977,20 +2983,20 @@
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M32" s="5"/>
@@ -3008,25 +3014,25 @@
       <c r="A33" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M33" s="5"/>
@@ -3044,27 +3050,27 @@
       <c r="A34" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9" t="s">
+      <c r="K34" s="9"/>
+      <c r="L34" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M34" s="5"/>
@@ -3082,31 +3088,31 @@
       <c r="A35" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M35" s="5"/>
@@ -3124,31 +3130,31 @@
       <c r="A36" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="9" t="s">
+      <c r="J36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M36" s="5"/>
@@ -3166,31 +3172,31 @@
       <c r="A37" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9" t="s">
+      <c r="J37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M37" s="5"/>
@@ -3208,23 +3214,23 @@
       <c r="A38" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="9" t="s">
+      <c r="K38" s="9"/>
+      <c r="L38" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M38" s="5"/>
@@ -3242,25 +3248,25 @@
       <c r="A39" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="9" t="s">
+      <c r="K39" s="9"/>
+      <c r="L39" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M39" s="5"/>
@@ -3278,29 +3284,29 @@
       <c r="A40" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9" t="s">
+      <c r="K40" s="9"/>
+      <c r="L40" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M40" s="5"/>
@@ -3318,31 +3324,31 @@
       <c r="A41" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M41" s="5"/>
@@ -3360,31 +3366,31 @@
       <c r="A42" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9" t="s">
+      <c r="J42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M42" s="5"/>
@@ -3402,31 +3408,31 @@
       <c r="A43" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8" t="s">
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="J43" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>209</v>
       </c>
       <c r="M43" s="5"/>
@@ -3454,25 +3460,25 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11" t="s">
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V44" s="11"/>
+      <c r="V44" s="13"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
@@ -3488,27 +3494,27 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11" t="s">
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V45" s="11"/>
+      <c r="V45" s="13"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="5" t="s">
@@ -3524,29 +3530,29 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11" t="s">
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="V46" s="11"/>
+      <c r="V46" s="13"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="5" t="s">
@@ -3562,31 +3568,31 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11" t="s">
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="U47" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V47" s="11"/>
+      <c r="U47" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V47" s="13"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="5" t="s">
@@ -3602,33 +3608,33 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11" t="s">
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11" t="s">
+      <c r="S48" s="13"/>
+      <c r="T48" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="U48" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V48" s="11"/>
+      <c r="U48" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V48" s="13"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -3644,33 +3650,33 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11" t="s">
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11" t="s">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="U49" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V49" s="11"/>
+      <c r="U49" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V49" s="13"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
@@ -3686,33 +3692,33 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11" t="s">
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11" t="s">
+      <c r="S50" s="13"/>
+      <c r="T50" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V50" s="11"/>
+      <c r="U50" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -3728,25 +3734,25 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11" t="s">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V51" s="11"/>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -3762,27 +3768,27 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11" t="s">
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V52" s="11"/>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -3798,31 +3804,31 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11" t="s">
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -3838,31 +3844,31 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -3878,33 +3884,33 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -3920,33 +3926,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -3962,33 +3968,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="2" t="s">
@@ -4011,7 +4017,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4189,7 +4195,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4551,7 +4557,7 @@
         <v>196</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -4797,7 +4803,7 @@
         <v>197</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -4925,7 +4931,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5169,7 +5175,7 @@
         <v>200</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5361,7 +5367,7 @@
         <v>202</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5493,7 +5499,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -5735,7 +5741,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -5927,7 +5933,7 @@
         <v>205</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6177,7 +6183,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N103" s="2"/>
